--- a/excercises/excercises/ex030.MF_gas_fraction.xlsx
+++ b/excercises/excercises/ex030.MF_gas_fraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491821FB-6DA6-4A07-AEAD-81410F998BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08248D5-0C59-442F-9D17-FE3E9CE174BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
